--- a/natmiOut/OldD4/LR-pairs_lrc2p/Timp3-Kdr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Timp3-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>110.656571054115</v>
+        <v>113.9271086666667</v>
       </c>
       <c r="H2">
-        <v>110.656571054115</v>
+        <v>341.781326</v>
       </c>
       <c r="I2">
-        <v>0.4214789750305316</v>
+        <v>0.4186548232357613</v>
       </c>
       <c r="J2">
-        <v>0.4214789750305316</v>
+        <v>0.5001257596740779</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>148.067422587639</v>
+        <v>153.3847273333333</v>
       </c>
       <c r="N2">
-        <v>148.067422587639</v>
+        <v>460.154182</v>
       </c>
       <c r="O2">
-        <v>0.9612238938119871</v>
+        <v>0.9432535557163702</v>
       </c>
       <c r="P2">
-        <v>0.9612238938119871</v>
+        <v>0.9461442014370421</v>
       </c>
       <c r="Q2">
-        <v>16384.63326836875</v>
+        <v>17474.6784987117</v>
       </c>
       <c r="R2">
-        <v>16384.63326836875</v>
+        <v>157272.1064884053</v>
       </c>
       <c r="S2">
-        <v>0.4051356615387328</v>
+        <v>0.3948976506349403</v>
       </c>
       <c r="T2">
-        <v>0.4051356615387328</v>
+        <v>0.4731910875049245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>110.656571054115</v>
+        <v>113.9271086666667</v>
       </c>
       <c r="H3">
-        <v>110.656571054115</v>
+        <v>341.781326</v>
       </c>
       <c r="I3">
-        <v>0.4214789750305316</v>
+        <v>0.4186548232357613</v>
       </c>
       <c r="J3">
-        <v>0.4214789750305316</v>
+        <v>0.5001257596740779</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.99674646997622</v>
+        <v>0.06306133333333333</v>
       </c>
       <c r="N3">
-        <v>2.99674646997622</v>
+        <v>0.189184</v>
       </c>
       <c r="O3">
-        <v>0.01945427468309524</v>
+        <v>0.0003878014971178633</v>
       </c>
       <c r="P3">
-        <v>0.01945427468309524</v>
+        <v>0.0003889899333885992</v>
       </c>
       <c r="Q3">
-        <v>331.6096886860919</v>
+        <v>7.184395375331555</v>
       </c>
       <c r="R3">
-        <v>331.6096886860919</v>
+        <v>64.659558377984</v>
       </c>
       <c r="S3">
-        <v>0.008199567753393401</v>
+        <v>0.0001623549672264427</v>
       </c>
       <c r="T3">
-        <v>0.008199567753393401</v>
+        <v>0.0001945438859415421</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>110.656571054115</v>
+        <v>113.9271086666667</v>
       </c>
       <c r="H4">
-        <v>110.656571054115</v>
+        <v>341.781326</v>
       </c>
       <c r="I4">
-        <v>0.4214789750305316</v>
+        <v>0.4186548232357613</v>
       </c>
       <c r="J4">
-        <v>0.4214789750305316</v>
+        <v>0.5001257596740779</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.91615214872979</v>
+        <v>5.722979333333332</v>
       </c>
       <c r="N4">
-        <v>1.91615214872979</v>
+        <v>17.168938</v>
       </c>
       <c r="O4">
-        <v>0.01243927392906491</v>
+        <v>0.0351939902968738</v>
       </c>
       <c r="P4">
-        <v>0.01243927392906491</v>
+        <v>0.03530184396657746</v>
       </c>
       <c r="Q4">
-        <v>212.0348263964131</v>
+        <v>652.002488405754</v>
       </c>
       <c r="R4">
-        <v>212.0348263964131</v>
+        <v>5868.022395651787</v>
       </c>
       <c r="S4">
-        <v>0.005242892425746291</v>
+        <v>0.0147341337866988</v>
       </c>
       <c r="T4">
-        <v>0.005242892425746291</v>
+        <v>0.01765536153168032</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>110.656571054115</v>
+        <v>113.9271086666667</v>
       </c>
       <c r="H5">
-        <v>110.656571054115</v>
+        <v>341.781326</v>
       </c>
       <c r="I5">
-        <v>0.4214789750305316</v>
+        <v>0.4186548232357613</v>
       </c>
       <c r="J5">
-        <v>0.4214789750305316</v>
+        <v>0.5001257596740779</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.06019270601575</v>
+        <v>1.951202</v>
       </c>
       <c r="N5">
-        <v>1.06019270601575</v>
+        <v>5.853605999999999</v>
       </c>
       <c r="O5">
-        <v>0.006882557575852624</v>
+        <v>0.01199909701844822</v>
       </c>
       <c r="P5">
-        <v>0.006882557575852624</v>
+        <v>0.0120358688262385</v>
       </c>
       <c r="Q5">
-        <v>117.3172895042863</v>
+        <v>222.2948022846173</v>
       </c>
       <c r="R5">
-        <v>117.3172895042863</v>
+        <v>2000.653220561556</v>
       </c>
       <c r="S5">
-        <v>0.002900853312658984</v>
+        <v>0.005023479841247188</v>
       </c>
       <c r="T5">
-        <v>0.002900853312658984</v>
+        <v>0.006019448040060083</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -779,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.5908052777357</v>
+        <v>113.9271086666667</v>
       </c>
       <c r="H6">
-        <v>24.5908052777357</v>
+        <v>341.781326</v>
       </c>
       <c r="I6">
-        <v>0.09366373189502517</v>
+        <v>0.4186548232357613</v>
       </c>
       <c r="J6">
-        <v>0.09366373189502517</v>
+        <v>0.5001257596740779</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>148.067422587639</v>
+        <v>1.490433</v>
       </c>
       <c r="N6">
-        <v>148.067422587639</v>
+        <v>2.980866</v>
       </c>
       <c r="O6">
-        <v>0.9612238938119871</v>
+        <v>0.009165555471189982</v>
       </c>
       <c r="P6">
-        <v>0.9612238938119871</v>
+        <v>0.006129095836753322</v>
       </c>
       <c r="Q6">
-        <v>3641.097156828835</v>
+        <v>169.800722351386</v>
       </c>
       <c r="R6">
-        <v>3641.097156828835</v>
+        <v>1018.804334108316</v>
       </c>
       <c r="S6">
-        <v>0.0900318170810981</v>
+        <v>0.003837204005648607</v>
       </c>
       <c r="T6">
-        <v>0.0900318170810981</v>
+        <v>0.003065318711471483</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.5908052777357</v>
+        <v>25.210481</v>
       </c>
       <c r="H7">
-        <v>24.5908052777357</v>
+        <v>75.631443</v>
       </c>
       <c r="I7">
-        <v>0.09366373189502517</v>
+        <v>0.09264247631899748</v>
       </c>
       <c r="J7">
-        <v>0.09366373189502517</v>
+        <v>0.110670858845055</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.99674646997622</v>
+        <v>153.3847273333333</v>
       </c>
       <c r="N7">
-        <v>2.99674646997622</v>
+        <v>460.154182</v>
       </c>
       <c r="O7">
-        <v>0.01945427468309524</v>
+        <v>0.9432535557163702</v>
       </c>
       <c r="P7">
-        <v>0.01945427468309524</v>
+        <v>0.9461442014370421</v>
       </c>
       <c r="Q7">
-        <v>73.69240890992707</v>
+        <v>3866.902754127181</v>
       </c>
       <c r="R7">
-        <v>73.69240890992707</v>
+        <v>34802.12478714462</v>
       </c>
       <c r="S7">
-        <v>0.001822159968129608</v>
+        <v>0.08738534519826399</v>
       </c>
       <c r="T7">
-        <v>0.001822159968129608</v>
+        <v>0.1047105913643062</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>24.5908052777357</v>
+        <v>25.210481</v>
       </c>
       <c r="H8">
-        <v>24.5908052777357</v>
+        <v>75.631443</v>
       </c>
       <c r="I8">
-        <v>0.09366373189502517</v>
+        <v>0.09264247631899748</v>
       </c>
       <c r="J8">
-        <v>0.09366373189502517</v>
+        <v>0.110670858845055</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.91615214872979</v>
+        <v>0.06306133333333333</v>
       </c>
       <c r="N8">
-        <v>1.91615214872979</v>
+        <v>0.189184</v>
       </c>
       <c r="O8">
-        <v>0.01243927392906491</v>
+        <v>0.0003878014971178633</v>
       </c>
       <c r="P8">
-        <v>0.01243927392906491</v>
+        <v>0.0003889899333885992</v>
       </c>
       <c r="Q8">
-        <v>47.11972437192912</v>
+        <v>1.589806545834667</v>
       </c>
       <c r="R8">
-        <v>47.11972437192912</v>
+        <v>14.308258912512</v>
       </c>
       <c r="S8">
-        <v>0.001165108818260712</v>
+        <v>3.592689101321342E-05</v>
       </c>
       <c r="T8">
-        <v>0.001165108818260712</v>
+        <v>4.304985001019701E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>24.5908052777357</v>
+        <v>25.210481</v>
       </c>
       <c r="H9">
-        <v>24.5908052777357</v>
+        <v>75.631443</v>
       </c>
       <c r="I9">
-        <v>0.09366373189502517</v>
+        <v>0.09264247631899748</v>
       </c>
       <c r="J9">
-        <v>0.09366373189502517</v>
+        <v>0.110670858845055</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.06019270601575</v>
+        <v>5.722979333333332</v>
       </c>
       <c r="N9">
-        <v>1.06019270601575</v>
+        <v>17.168938</v>
       </c>
       <c r="O9">
-        <v>0.006882557575852624</v>
+        <v>0.0351939902968738</v>
       </c>
       <c r="P9">
-        <v>0.006882557575852624</v>
+        <v>0.03530184396657746</v>
       </c>
       <c r="Q9">
-        <v>26.070992390509</v>
+        <v>144.2790617463926</v>
       </c>
       <c r="R9">
-        <v>26.070992390509</v>
+        <v>1298.511555717534</v>
       </c>
       <c r="S9">
-        <v>0.0006446460275367345</v>
+        <v>0.003260458412649158</v>
       </c>
       <c r="T9">
-        <v>0.0006446460275367345</v>
+        <v>0.00390688539059525</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1027,60 +1027,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>127.296137365598</v>
+        <v>25.210481</v>
       </c>
       <c r="H10">
-        <v>127.296137365598</v>
+        <v>75.631443</v>
       </c>
       <c r="I10">
-        <v>0.4848572930744433</v>
+        <v>0.09264247631899748</v>
       </c>
       <c r="J10">
-        <v>0.4848572930744433</v>
+        <v>0.110670858845055</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>148.067422587639</v>
+        <v>1.951202</v>
       </c>
       <c r="N10">
-        <v>148.067422587639</v>
+        <v>5.853605999999999</v>
       </c>
       <c r="O10">
-        <v>0.9612238938119871</v>
+        <v>0.01199909701844822</v>
       </c>
       <c r="P10">
-        <v>0.9612238938119871</v>
+        <v>0.0120358688262385</v>
       </c>
       <c r="Q10">
-        <v>18848.41096508614</v>
+        <v>49.190740948162</v>
       </c>
       <c r="R10">
-        <v>18848.41096508614</v>
+        <v>442.7166685334579</v>
       </c>
       <c r="S10">
-        <v>0.4660564151921562</v>
+        <v>0.001111626061380942</v>
       </c>
       <c r="T10">
-        <v>0.4660564151921562</v>
+        <v>0.001332019939946239</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1089,55 +1089,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>127.296137365598</v>
+        <v>25.210481</v>
       </c>
       <c r="H11">
-        <v>127.296137365598</v>
+        <v>75.631443</v>
       </c>
       <c r="I11">
-        <v>0.4848572930744433</v>
+        <v>0.09264247631899748</v>
       </c>
       <c r="J11">
-        <v>0.4848572930744433</v>
+        <v>0.110670858845055</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.99674646997622</v>
+        <v>1.490433</v>
       </c>
       <c r="N11">
-        <v>2.99674646997622</v>
+        <v>2.980866</v>
       </c>
       <c r="O11">
-        <v>0.01945427468309524</v>
+        <v>0.009165555471189982</v>
       </c>
       <c r="P11">
-        <v>0.01945427468309524</v>
+        <v>0.006129095836753322</v>
       </c>
       <c r="Q11">
-        <v>381.4742502919638</v>
+        <v>37.57453282827301</v>
       </c>
       <c r="R11">
-        <v>381.4742502919638</v>
+        <v>225.447196969638</v>
       </c>
       <c r="S11">
-        <v>0.009432546961572232</v>
+        <v>0.0008491197556901757</v>
       </c>
       <c r="T11">
-        <v>0.009432546961572232</v>
+        <v>0.0006783123001971412</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>127.296137365598</v>
+        <v>132.9889985</v>
       </c>
       <c r="H12">
-        <v>127.296137365598</v>
+        <v>265.977997</v>
       </c>
       <c r="I12">
-        <v>0.4848572930744433</v>
+        <v>0.4887027004452411</v>
       </c>
       <c r="J12">
-        <v>0.4848572930744433</v>
+        <v>0.3892033814808671</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.91615214872979</v>
+        <v>153.3847273333333</v>
       </c>
       <c r="N12">
-        <v>1.91615214872979</v>
+        <v>460.154182</v>
       </c>
       <c r="O12">
-        <v>0.01243927392906491</v>
+        <v>0.9432535557163702</v>
       </c>
       <c r="P12">
-        <v>0.01243927392906491</v>
+        <v>0.9461442014370421</v>
       </c>
       <c r="Q12">
-        <v>243.9187671380931</v>
+        <v>20398.48127325558</v>
       </c>
       <c r="R12">
-        <v>243.9187671380931</v>
+        <v>122390.8876395335</v>
       </c>
       <c r="S12">
-        <v>0.006031272685057907</v>
+        <v>0.4609705598831658</v>
       </c>
       <c r="T12">
-        <v>0.006031272685057907</v>
+        <v>0.3682425225678115</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,55 +1213,241 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>132.9889985</v>
+      </c>
+      <c r="H13">
+        <v>265.977997</v>
+      </c>
+      <c r="I13">
+        <v>0.4887027004452411</v>
+      </c>
+      <c r="J13">
+        <v>0.3892033814808671</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.06306133333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.189184</v>
+      </c>
+      <c r="O13">
+        <v>0.0003878014971178633</v>
+      </c>
+      <c r="P13">
+        <v>0.0003889899333885992</v>
+      </c>
+      <c r="Q13">
+        <v>8.386463564074667</v>
+      </c>
+      <c r="R13">
+        <v>50.318781384448</v>
+      </c>
+      <c r="S13">
+        <v>0.0001895196388782072</v>
+      </c>
+      <c r="T13">
+        <v>0.0001513961974368601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>127.296137365598</v>
-      </c>
-      <c r="H13">
-        <v>127.296137365598</v>
-      </c>
-      <c r="I13">
-        <v>0.4848572930744433</v>
-      </c>
-      <c r="J13">
-        <v>0.4848572930744433</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.06019270601575</v>
-      </c>
-      <c r="N13">
-        <v>1.06019270601575</v>
-      </c>
-      <c r="O13">
-        <v>0.006882557575852624</v>
-      </c>
-      <c r="P13">
-        <v>0.006882557575852624</v>
-      </c>
-      <c r="Q13">
-        <v>134.958436338986</v>
-      </c>
-      <c r="R13">
-        <v>134.958436338986</v>
-      </c>
-      <c r="S13">
-        <v>0.003337058235656906</v>
-      </c>
-      <c r="T13">
-        <v>0.003337058235656906</v>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>132.9889985</v>
+      </c>
+      <c r="H14">
+        <v>265.977997</v>
+      </c>
+      <c r="I14">
+        <v>0.4887027004452411</v>
+      </c>
+      <c r="J14">
+        <v>0.3892033814808671</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.722979333333332</v>
+      </c>
+      <c r="N14">
+        <v>17.168938</v>
+      </c>
+      <c r="O14">
+        <v>0.0351939902968738</v>
+      </c>
+      <c r="P14">
+        <v>0.03530184396657746</v>
+      </c>
+      <c r="Q14">
+        <v>761.0932899761975</v>
+      </c>
+      <c r="R14">
+        <v>4566.559739857185</v>
+      </c>
+      <c r="S14">
+        <v>0.01719939809752584</v>
+      </c>
+      <c r="T14">
+        <v>0.01373959704430189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>132.9889985</v>
+      </c>
+      <c r="H15">
+        <v>265.977997</v>
+      </c>
+      <c r="I15">
+        <v>0.4887027004452411</v>
+      </c>
+      <c r="J15">
+        <v>0.3892033814808671</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.951202</v>
+      </c>
+      <c r="N15">
+        <v>5.853605999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.01199909701844822</v>
+      </c>
+      <c r="P15">
+        <v>0.0120358688262385</v>
+      </c>
+      <c r="Q15">
+        <v>259.488399851197</v>
+      </c>
+      <c r="R15">
+        <v>1556.930399107182</v>
+      </c>
+      <c r="S15">
+        <v>0.005863991115820084</v>
+      </c>
+      <c r="T15">
+        <v>0.00468440084623218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>132.9889985</v>
+      </c>
+      <c r="H16">
+        <v>265.977997</v>
+      </c>
+      <c r="I16">
+        <v>0.4887027004452411</v>
+      </c>
+      <c r="J16">
+        <v>0.3892033814808671</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.490433</v>
+      </c>
+      <c r="N16">
+        <v>2.980866</v>
+      </c>
+      <c r="O16">
+        <v>0.009165555471189982</v>
+      </c>
+      <c r="P16">
+        <v>0.006129095836753322</v>
+      </c>
+      <c r="Q16">
+        <v>198.2111920013505</v>
+      </c>
+      <c r="R16">
+        <v>792.8447680054021</v>
+      </c>
+      <c r="S16">
+        <v>0.004479231709851198</v>
+      </c>
+      <c r="T16">
+        <v>0.002385464825084698</v>
       </c>
     </row>
   </sheetData>
